--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -29,10 +29,16 @@
     <t>Университеты</t>
   </si>
   <si>
-    <t>PHYSICS</t>
+    <t>MEDICINE</t>
   </si>
   <si>
-    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
   </si>
   <si>
     <t>MATHEMATICS</t>
@@ -41,16 +47,10 @@
     <t>Казанский Университет Вычислений;</t>
   </si>
   <si>
-    <t>LINGUISTICS</t>
+    <t>PHYSICS</t>
   </si>
   <si>
-    <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -186,7 +186,7 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
